--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Plxdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>540.926562963066</v>
+        <v>1.026875</v>
       </c>
       <c r="H2">
-        <v>540.926562963066</v>
+        <v>3.080625</v>
       </c>
       <c r="I2">
-        <v>0.950574008416617</v>
+        <v>0.001791230048025246</v>
       </c>
       <c r="J2">
-        <v>0.950574008416617</v>
+        <v>0.001791230048025246</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.86294450805228</v>
+        <v>2.181962</v>
       </c>
       <c r="N2">
-        <v>1.86294450805228</v>
+        <v>6.545886</v>
       </c>
       <c r="O2">
-        <v>0.1747463874638892</v>
+        <v>0.1718849556529879</v>
       </c>
       <c r="P2">
-        <v>0.1747463874638892</v>
+        <v>0.1718849556529879</v>
       </c>
       <c r="Q2">
-        <v>1007.71616973164</v>
+        <v>2.24060222875</v>
       </c>
       <c r="R2">
-        <v>1007.71616973164</v>
+        <v>20.16542005875</v>
       </c>
       <c r="S2">
-        <v>0.1661093739878724</v>
+        <v>0.0003078854973691188</v>
       </c>
       <c r="T2">
-        <v>0.1661093739878724</v>
+        <v>0.0003078854973691189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>540.926562963066</v>
+        <v>1.026875</v>
       </c>
       <c r="H3">
-        <v>540.926562963066</v>
+        <v>3.080625</v>
       </c>
       <c r="I3">
-        <v>0.950574008416617</v>
+        <v>0.001791230048025246</v>
       </c>
       <c r="J3">
-        <v>0.950574008416617</v>
+        <v>0.001791230048025246</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.85225143253593</v>
+        <v>1.926782</v>
       </c>
       <c r="N3">
-        <v>1.85225143253593</v>
+        <v>5.780346</v>
       </c>
       <c r="O3">
-        <v>0.1737433643951482</v>
+        <v>0.1517830460030813</v>
       </c>
       <c r="P3">
-        <v>0.1737433643951482</v>
+        <v>0.1517830460030813</v>
       </c>
       <c r="Q3">
-        <v>1001.932001145076</v>
+        <v>1.97856426625</v>
       </c>
       <c r="R3">
-        <v>1001.932001145076</v>
+        <v>17.80707839625</v>
       </c>
       <c r="S3">
-        <v>0.165155926328885</v>
+        <v>0.0002718783527815175</v>
       </c>
       <c r="T3">
-        <v>0.165155926328885</v>
+        <v>0.0002718783527815175</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>540.926562963066</v>
+        <v>1.026875</v>
       </c>
       <c r="H4">
-        <v>540.926562963066</v>
+        <v>3.080625</v>
       </c>
       <c r="I4">
-        <v>0.950574008416617</v>
+        <v>0.001791230048025246</v>
       </c>
       <c r="J4">
-        <v>0.950574008416617</v>
+        <v>0.001791230048025246</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.61424991309604</v>
+        <v>2.851342333333334</v>
       </c>
       <c r="N4">
-        <v>2.61424991309604</v>
+        <v>8.554027000000001</v>
       </c>
       <c r="O4">
-        <v>0.2452197187123618</v>
+        <v>0.2246156672373245</v>
       </c>
       <c r="P4">
-        <v>0.2452197187123618</v>
+        <v>0.2246156672373245</v>
       </c>
       <c r="Q4">
-        <v>1414.117220217535</v>
+        <v>2.927972158541667</v>
       </c>
       <c r="R4">
-        <v>1414.117220217535</v>
+        <v>26.351749426875</v>
       </c>
       <c r="S4">
-        <v>0.233099490959205</v>
+        <v>0.0004023383324127355</v>
       </c>
       <c r="T4">
-        <v>0.233099490959205</v>
+        <v>0.0004023383324127355</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>540.926562963066</v>
+        <v>1.026875</v>
       </c>
       <c r="H5">
-        <v>540.926562963066</v>
+        <v>3.080625</v>
       </c>
       <c r="I5">
-        <v>0.950574008416617</v>
+        <v>0.001791230048025246</v>
       </c>
       <c r="J5">
-        <v>0.950574008416617</v>
+        <v>0.001791230048025246</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.33140118921815</v>
+        <v>5.73423</v>
       </c>
       <c r="N5">
-        <v>4.33140118921815</v>
+        <v>17.20269</v>
       </c>
       <c r="O5">
-        <v>0.4062905294286008</v>
+        <v>0.4517163311066063</v>
       </c>
       <c r="P5">
-        <v>0.4062905294286008</v>
+        <v>0.4517163311066063</v>
       </c>
       <c r="Q5">
-        <v>2342.96995809791</v>
+        <v>5.88833743125</v>
       </c>
       <c r="R5">
-        <v>2342.96995809791</v>
+        <v>52.99503688125</v>
       </c>
       <c r="S5">
-        <v>0.3862092171406546</v>
+        <v>0.0008091278654618743</v>
       </c>
       <c r="T5">
-        <v>0.3862092171406546</v>
+        <v>0.0008091278654618743</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.658446588360788</v>
+        <v>543.3469646666667</v>
       </c>
       <c r="H6">
-        <v>0.658446588360788</v>
+        <v>1630.040894</v>
       </c>
       <c r="I6">
-        <v>0.001157092765786576</v>
+        <v>0.9477876173967086</v>
       </c>
       <c r="J6">
-        <v>0.001157092765786576</v>
+        <v>0.9477876173967087</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.86294450805228</v>
+        <v>2.181962</v>
       </c>
       <c r="N6">
-        <v>1.86294450805228</v>
+        <v>6.545886</v>
       </c>
       <c r="O6">
-        <v>0.1747463874638892</v>
+        <v>0.1718849556529879</v>
       </c>
       <c r="P6">
-        <v>0.1747463874638892</v>
+        <v>0.1718849556529879</v>
       </c>
       <c r="Q6">
-        <v>1.22664945563249</v>
+        <v>1185.56242971801</v>
       </c>
       <c r="R6">
-        <v>1.22664945563249</v>
+        <v>10670.06186746209</v>
       </c>
       <c r="S6">
-        <v>0.0002021977807818042</v>
+        <v>0.1629104325846843</v>
       </c>
       <c r="T6">
-        <v>0.0002021977807818042</v>
+        <v>0.1629104325846844</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.658446588360788</v>
+        <v>543.3469646666667</v>
       </c>
       <c r="H7">
-        <v>0.658446588360788</v>
+        <v>1630.040894</v>
       </c>
       <c r="I7">
-        <v>0.001157092765786576</v>
+        <v>0.9477876173967086</v>
       </c>
       <c r="J7">
-        <v>0.001157092765786576</v>
+        <v>0.9477876173967087</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.85225143253593</v>
+        <v>1.926782</v>
       </c>
       <c r="N7">
-        <v>1.85225143253593</v>
+        <v>5.780346</v>
       </c>
       <c r="O7">
-        <v>0.1737433643951482</v>
+        <v>0.1517830460030813</v>
       </c>
       <c r="P7">
-        <v>0.1737433643951482</v>
+        <v>0.1517830460030813</v>
       </c>
       <c r="Q7">
-        <v>1.219608636539665</v>
+        <v>1046.91115127437</v>
       </c>
       <c r="R7">
-        <v>1.219608636539665</v>
+        <v>9422.200361469324</v>
       </c>
       <c r="S7">
-        <v>0.0002010371900450469</v>
+        <v>0.1438580915324754</v>
       </c>
       <c r="T7">
-        <v>0.0002010371900450469</v>
+        <v>0.1438580915324755</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.658446588360788</v>
+        <v>543.3469646666667</v>
       </c>
       <c r="H8">
-        <v>0.658446588360788</v>
+        <v>1630.040894</v>
       </c>
       <c r="I8">
-        <v>0.001157092765786576</v>
+        <v>0.9477876173967086</v>
       </c>
       <c r="J8">
-        <v>0.001157092765786576</v>
+        <v>0.9477876173967087</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.61424991309604</v>
+        <v>2.851342333333334</v>
       </c>
       <c r="N8">
-        <v>2.61424991309604</v>
+        <v>8.554027000000001</v>
       </c>
       <c r="O8">
-        <v>0.2452197187123618</v>
+        <v>0.2246156672373245</v>
       </c>
       <c r="P8">
-        <v>0.2452197187123618</v>
+        <v>0.2246156672373245</v>
       </c>
       <c r="Q8">
-        <v>1.721343936400574</v>
+        <v>1549.268202042238</v>
       </c>
       <c r="R8">
-        <v>1.721343936400574</v>
+        <v>13943.41381838014</v>
       </c>
       <c r="S8">
-        <v>0.0002837419625502928</v>
+        <v>0.2128879480808357</v>
       </c>
       <c r="T8">
-        <v>0.0002837419625502928</v>
+        <v>0.2128879480808358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.658446588360788</v>
+        <v>543.3469646666667</v>
       </c>
       <c r="H9">
-        <v>0.658446588360788</v>
+        <v>1630.040894</v>
       </c>
       <c r="I9">
-        <v>0.001157092765786576</v>
+        <v>0.9477876173967086</v>
       </c>
       <c r="J9">
-        <v>0.001157092765786576</v>
+        <v>0.9477876173967087</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.33140118921815</v>
+        <v>5.73423</v>
       </c>
       <c r="N9">
-        <v>4.33140118921815</v>
+        <v>17.20269</v>
       </c>
       <c r="O9">
-        <v>0.4062905294286008</v>
+        <v>0.4517163311066063</v>
       </c>
       <c r="P9">
-        <v>0.4062905294286008</v>
+        <v>0.4517163311066063</v>
       </c>
       <c r="Q9">
-        <v>2.851996335862551</v>
+        <v>3115.67646520054</v>
       </c>
       <c r="R9">
-        <v>2.851996335862551</v>
+        <v>28041.08818680486</v>
       </c>
       <c r="S9">
-        <v>0.0004701158324094319</v>
+        <v>0.4281311451987131</v>
       </c>
       <c r="T9">
-        <v>0.0004701158324094319</v>
+        <v>0.4281311451987131</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.467539932957</v>
+        <v>0.9942943333333334</v>
       </c>
       <c r="H10">
-        <v>27.467539932957</v>
+        <v>2.982883</v>
       </c>
       <c r="I10">
-        <v>0.04826889881759642</v>
+        <v>0.001734397941763016</v>
       </c>
       <c r="J10">
-        <v>0.04826889881759642</v>
+        <v>0.001734397941763016</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.86294450805228</v>
+        <v>2.181962</v>
       </c>
       <c r="N10">
-        <v>1.86294450805228</v>
+        <v>6.545886</v>
       </c>
       <c r="O10">
-        <v>0.1747463874638892</v>
+        <v>0.1718849556529879</v>
       </c>
       <c r="P10">
-        <v>0.1747463874638892</v>
+        <v>0.1718849556529879</v>
       </c>
       <c r="Q10">
-        <v>51.17050266780893</v>
+        <v>2.169512452148667</v>
       </c>
       <c r="R10">
-        <v>51.17050266780893</v>
+        <v>19.525612069338</v>
       </c>
       <c r="S10">
-        <v>0.008434815695234967</v>
+        <v>0.0002981169133045695</v>
       </c>
       <c r="T10">
-        <v>0.008434815695234967</v>
+        <v>0.0002981169133045695</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.467539932957</v>
+        <v>0.9942943333333334</v>
       </c>
       <c r="H11">
-        <v>27.467539932957</v>
+        <v>2.982883</v>
       </c>
       <c r="I11">
-        <v>0.04826889881759642</v>
+        <v>0.001734397941763016</v>
       </c>
       <c r="J11">
-        <v>0.04826889881759642</v>
+        <v>0.001734397941763016</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.85225143253593</v>
+        <v>1.926782</v>
       </c>
       <c r="N11">
-        <v>1.85225143253593</v>
+        <v>5.780346</v>
       </c>
       <c r="O11">
-        <v>0.1737433643951482</v>
+        <v>0.1517830460030813</v>
       </c>
       <c r="P11">
-        <v>0.1737433643951482</v>
+        <v>0.1517830460030813</v>
       </c>
       <c r="Q11">
-        <v>50.87679018905747</v>
+        <v>1.915788424168667</v>
       </c>
       <c r="R11">
-        <v>50.87679018905747</v>
+        <v>17.242095817518</v>
       </c>
       <c r="S11">
-        <v>0.008386400876218194</v>
+        <v>0.0002632522025822654</v>
       </c>
       <c r="T11">
-        <v>0.008386400876218194</v>
+        <v>0.0002632522025822654</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.467539932957</v>
+        <v>0.9942943333333334</v>
       </c>
       <c r="H12">
-        <v>27.467539932957</v>
+        <v>2.982883</v>
       </c>
       <c r="I12">
-        <v>0.04826889881759642</v>
+        <v>0.001734397941763016</v>
       </c>
       <c r="J12">
-        <v>0.04826889881759642</v>
+        <v>0.001734397941763016</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.61424991309604</v>
+        <v>2.851342333333334</v>
       </c>
       <c r="N12">
-        <v>2.61424991309604</v>
+        <v>8.554027000000001</v>
       </c>
       <c r="O12">
-        <v>0.2452197187123618</v>
+        <v>0.2246156672373245</v>
       </c>
       <c r="P12">
-        <v>0.2452197187123618</v>
+        <v>0.2246156672373245</v>
       </c>
       <c r="Q12">
-        <v>71.80701388269485</v>
+        <v>2.835073524426778</v>
       </c>
       <c r="R12">
-        <v>71.80701388269485</v>
+        <v>25.51566171984101</v>
       </c>
       <c r="S12">
-        <v>0.01183648579060644</v>
+        <v>0.0003895729509441421</v>
       </c>
       <c r="T12">
-        <v>0.01183648579060644</v>
+        <v>0.0003895729509441421</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9942943333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.982883</v>
+      </c>
+      <c r="I13">
+        <v>0.001734397941763016</v>
+      </c>
+      <c r="J13">
+        <v>0.001734397941763016</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.73423</v>
+      </c>
+      <c r="N13">
+        <v>17.20269</v>
+      </c>
+      <c r="O13">
+        <v>0.4517163311066063</v>
+      </c>
+      <c r="P13">
+        <v>0.4517163311066063</v>
+      </c>
+      <c r="Q13">
+        <v>5.701512395030001</v>
+      </c>
+      <c r="R13">
+        <v>51.31361155527001</v>
+      </c>
+      <c r="S13">
+        <v>0.0007834558749320389</v>
+      </c>
+      <c r="T13">
+        <v>0.0007834558749320389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>27.91110566666667</v>
+      </c>
+      <c r="H14">
+        <v>83.733317</v>
+      </c>
+      <c r="I14">
+        <v>0.04868675461350316</v>
+      </c>
+      <c r="J14">
+        <v>0.04868675461350316</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.181962</v>
+      </c>
+      <c r="N14">
+        <v>6.545886</v>
+      </c>
+      <c r="O14">
+        <v>0.1718849556529879</v>
+      </c>
+      <c r="P14">
+        <v>0.1718849556529879</v>
+      </c>
+      <c r="Q14">
+        <v>60.90097194265133</v>
+      </c>
+      <c r="R14">
+        <v>548.108747483862</v>
+      </c>
+      <c r="S14">
+        <v>0.008368520657629894</v>
+      </c>
+      <c r="T14">
+        <v>0.008368520657629896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>27.91110566666667</v>
+      </c>
+      <c r="H15">
+        <v>83.733317</v>
+      </c>
+      <c r="I15">
+        <v>0.04868675461350316</v>
+      </c>
+      <c r="J15">
+        <v>0.04868675461350316</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.926782</v>
+      </c>
+      <c r="N15">
+        <v>5.780346</v>
+      </c>
+      <c r="O15">
+        <v>0.1517830460030813</v>
+      </c>
+      <c r="P15">
+        <v>0.1517830460030813</v>
+      </c>
+      <c r="Q15">
+        <v>53.77861599863134</v>
+      </c>
+      <c r="R15">
+        <v>484.007543987682</v>
+      </c>
+      <c r="S15">
+        <v>0.007389823915242081</v>
+      </c>
+      <c r="T15">
+        <v>0.007389823915242081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>27.467539932957</v>
-      </c>
-      <c r="H13">
-        <v>27.467539932957</v>
-      </c>
-      <c r="I13">
-        <v>0.04826889881759642</v>
-      </c>
-      <c r="J13">
-        <v>0.04826889881759642</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.33140118921815</v>
-      </c>
-      <c r="N13">
-        <v>4.33140118921815</v>
-      </c>
-      <c r="O13">
-        <v>0.4062905294286008</v>
-      </c>
-      <c r="P13">
-        <v>0.4062905294286008</v>
-      </c>
-      <c r="Q13">
-        <v>118.972935130507</v>
-      </c>
-      <c r="R13">
-        <v>118.972935130507</v>
-      </c>
-      <c r="S13">
-        <v>0.01961119645553681</v>
-      </c>
-      <c r="T13">
-        <v>0.01961119645553681</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>27.91110566666667</v>
+      </c>
+      <c r="H16">
+        <v>83.733317</v>
+      </c>
+      <c r="I16">
+        <v>0.04868675461350316</v>
+      </c>
+      <c r="J16">
+        <v>0.04868675461350316</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.851342333333334</v>
+      </c>
+      <c r="N16">
+        <v>8.554027000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.2246156672373245</v>
+      </c>
+      <c r="P16">
+        <v>0.2246156672373245</v>
+      </c>
+      <c r="Q16">
+        <v>79.58411715750657</v>
+      </c>
+      <c r="R16">
+        <v>716.2570544175591</v>
+      </c>
+      <c r="S16">
+        <v>0.0109358078731319</v>
+      </c>
+      <c r="T16">
+        <v>0.0109358078731319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>27.91110566666667</v>
+      </c>
+      <c r="H17">
+        <v>83.733317</v>
+      </c>
+      <c r="I17">
+        <v>0.04868675461350316</v>
+      </c>
+      <c r="J17">
+        <v>0.04868675461350316</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.73423</v>
+      </c>
+      <c r="N17">
+        <v>17.20269</v>
+      </c>
+      <c r="O17">
+        <v>0.4517163311066063</v>
+      </c>
+      <c r="P17">
+        <v>0.4517163311066063</v>
+      </c>
+      <c r="Q17">
+        <v>160.04869944697</v>
+      </c>
+      <c r="R17">
+        <v>1440.43829502273</v>
+      </c>
+      <c r="S17">
+        <v>0.02199260216749929</v>
+      </c>
+      <c r="T17">
+        <v>0.02199260216749929</v>
       </c>
     </row>
   </sheetData>
